--- a/src/analysis_examples/circadb/results_jtk/cosinor_10471018_fam73b_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10471018_fam73b_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.23715204744565194, 0.3461263358998871]</t>
+          <t>[0.2372991091609101, 0.3459792741846289]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.874860349777464e-10</v>
+        <v>2.737656767948238e-10</v>
       </c>
       <c r="N2" t="n">
-        <v>2.874860349777464e-10</v>
+        <v>2.737656767948238e-10</v>
       </c>
       <c r="O2" t="n">
         <v>-1.157263359880925</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.3114818100040745, 0.3708126830602202]</t>
+          <t>[0.31149073664463567, 0.370803756419659]</t>
         </is>
       </c>
       <c r="U2" t="n">
